--- a/biology/Médecine/Marcelle_Geber/Marcelle_Geber.xlsx
+++ b/biology/Médecine/Marcelle_Geber/Marcelle_Geber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcelle Geber, née le 2 août 1919 aux Pavillons-sous-Bois et morte[1] le 9 mai 2020 à Boulogne-Billancourt[2], est une pédopsychiatre française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcelle Geber, née le 2 août 1919 aux Pavillons-sous-Bois et morte le 9 mai 2020 à Boulogne-Billancourt, est une pédopsychiatre française.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fait des études de médecine et soutient sa thèse de doctorat à la faculté de médecine de Paris en 1950[3].   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait des études de médecine et soutient sa thèse de doctorat à la faculté de médecine de Paris en 1950.   
 Marcelle Geber a travaillé avec Jenny Aubry et John Bowlby à l'étude des carences de soins maternels précoces et de leurs conséquences sur le bébé.  Elle a notamment été directrice des centres de guidance infantile de l'Aisne (en 1998). Forte de cette expérience, elle a été mandatée par l'OMS dans les années 1950 afin d'étudier les particularités de la relation mère-bébé au cours du kwashiorkor.
 La première, elle démontre de ses études de terrain en Ouganda et au Mozambique, que le kwashiorkor est en fait lié à l'association d'une dénutrition et de troubles psychologiques affectant la dyade mère-bébé.
 Marcelle Geber-Banay a aussi rédigé la biographie de son époux, l’artiste Ben (Banay) :
